--- a/data/trans_bre/P6901-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6901-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P6901-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6901-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-2,64%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,76%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-27,5; 18,82</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-12,17; 29,75</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-20,52; 36,39</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-34,23; 30,03</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,01; 60,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,53; 79,38</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,08</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,87%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,12; 19,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,02; 4,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,37; 7,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,57; 22,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,09; 26,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,9; 5,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,06; 8,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,1; 33,42</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,56%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,95; 11,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,51; 9,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,22; 24,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,86; 30,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,82; 15,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,06; 11,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,93; 33,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,78; 67,61</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,12</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,95%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,07; 20,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,08; 15,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,17; 21,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,51; 32,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,69; 32,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,03; 22,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,79; 31,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,58; 65,89</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,15%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,7; 38,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,33; 37,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,46; 31,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,28; 20,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,07; 67,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,33; 67,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,4; 46,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,94; 28,96</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,37</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>50,91</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,53%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,01; 25,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,0; 29,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,13; 72,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,59; 25,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,48; 36,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,69; 45,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,07; 270,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,38; 45,83</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,64</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,58%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,53%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,41%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,04; 31,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,13; 40,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,18; 20,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,8; 21,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,81; 55,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,9; 106,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,52; 28,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,27; 37,43</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,78</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>34,71</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,58</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,04%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,03%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,35%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,58; 10,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,41; 31,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,53; 56,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,46; -2,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,33; 14,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,98; 52,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,92; 164,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,71; -3,4</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,44</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,01%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,41%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,69; 9,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 11,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,19; 17,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,64; 9,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,71; 13,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,04; 16,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,99; 24,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,03; 14,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6901-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6901-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,39</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>11,57%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,06; 28,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 36,39</t>
+          <t>-23,21; 34,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,02; 50,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,53; 79,38</t>
+          <t>-30,19; 74,13</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>6,88%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 22,31</t>
+          <t>-8,92; 21,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 33,42</t>
+          <t>-9,4; 31,78</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,77</t>
+          <t>13,52</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>24,04%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 30,05</t>
+          <t>-4,23; 29,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 67,61</t>
+          <t>-5,96; 67,35</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-8,81</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,12</t>
+          <t>15,95</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,69%</t>
+          <t>-10,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>23,33%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 15,42</t>
+          <t>-29,87; 9,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 32,34</t>
+          <t>-4,9; 43,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 22,25</t>
+          <t>-34,26; 11,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 65,89</t>
+          <t>-7,0; 91,43</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,24%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 20,85</t>
+          <t>-21,4; 20,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 28,96</t>
+          <t>-23,16; 29,65</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>9,99%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 25,44</t>
+          <t>-14,14; 25,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,38; 45,83</t>
+          <t>-17,83; 46,52</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,04</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>10,18%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 21,71</t>
+          <t>-8,13; 21,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,27; 37,43</t>
+          <t>-9,98; 37,69</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-18,58</t>
+          <t>-17,65</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-20,35%</t>
+          <t>-19,34%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-44,46; -2,42</t>
+          <t>-40,64; -1,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-47,71; -3,4</t>
+          <t>-44,67; -2,71</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>7,21%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 9,96</t>
+          <t>-2,85; 12,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 14,05</t>
+          <t>-3,59; 18,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6901-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6901-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,5; 18,82</t>
+          <t>-23,65; 21,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 28,74</t>
+          <t>-13,23; 30,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 29,75</t>
+          <t>-9,71; 30,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,21; 34,64</t>
+          <t>-21,22; 33,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-34,23; 30,03</t>
+          <t>-29,96; 34,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 50,73</t>
+          <t>-16,44; 54,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 60,44</t>
+          <t>-14,44; 61,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-30,19; 74,13</t>
+          <t>-27,05; 72,46</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 19,34</t>
+          <t>-9,08; 20,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,02; 4,44</t>
+          <t>-26,62; 4,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 7,58</t>
+          <t>-12,69; 9,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 21,22</t>
+          <t>-8,11; 22,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 26,03</t>
+          <t>-10,12; 28,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,9; 5,22</t>
+          <t>-29,44; 5,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,06; 8,45</t>
+          <t>-13,59; 11,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 31,78</t>
+          <t>-9,03; 32,22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-34,95; 11,88</t>
+          <t>-37,35; 11,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-36,51; 9,35</t>
+          <t>-37,65; 9,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 24,17</t>
+          <t>-26,04; 24,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 29,84</t>
+          <t>-2,91; 30,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,82; 15,75</t>
+          <t>-42,47; 16,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-40,06; 11,23</t>
+          <t>-40,58; 10,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-27,93; 33,82</t>
+          <t>-27,35; 34,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 67,35</t>
+          <t>-4,27; 70,08</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 20,82</t>
+          <t>-20,33; 21,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,87; 9,19</t>
+          <t>-29,24; 10,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 21,47</t>
+          <t>-15,0; 23,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 43,14</t>
+          <t>-5,84; 44,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,69; 32,15</t>
+          <t>-25,06; 33,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,26; 11,42</t>
+          <t>-33,33; 12,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,79; 31,56</t>
+          <t>-17,16; 33,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 91,43</t>
+          <t>-8,0; 99,95</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-45,7; 38,12</t>
+          <t>-41,56; 34,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 37,06</t>
+          <t>-25,41; 39,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-44,46; 31,06</t>
+          <t>-39,34; 32,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,4; 20,77</t>
+          <t>-21,95; 19,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-58,07; 67,83</t>
+          <t>-55,99; 62,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-27,33; 67,57</t>
+          <t>-29,48; 73,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-47,4; 46,79</t>
+          <t>-42,76; 49,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-23,16; 29,65</t>
+          <t>-23,78; 26,26</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-30,01; 25,12</t>
+          <t>-27,16; 24,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 29,0</t>
+          <t>-10,46; 30,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29,13; 72,99</t>
+          <t>30,53; 70,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 25,63</t>
+          <t>-13,59; 25,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,48; 36,1</t>
+          <t>-35,13; 35,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 45,33</t>
+          <t>-12,67; 49,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>41,07; 270,11</t>
+          <t>43,89; 239,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 46,52</t>
+          <t>-16,71; 45,61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,04; 31,41</t>
+          <t>2,73; 31,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,13; 40,65</t>
+          <t>0,31; 39,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 20,64</t>
+          <t>-4,84; 20,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 21,75</t>
+          <t>-8,92; 20,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,81; 55,12</t>
+          <t>4,11; 53,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,9; 106,9</t>
+          <t>0,96; 106,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 28,47</t>
+          <t>-5,58; 28,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 37,69</t>
+          <t>-11,47; 35,12</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 10,56</t>
+          <t>-18,55; 9,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 31,1</t>
+          <t>-9,6; 30,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,53; 56,0</t>
+          <t>6,84; 56,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-40,64; -1,95</t>
+          <t>-41,88; -2,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 14,16</t>
+          <t>-22,32; 12,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 52,51</t>
+          <t>-11,51; 53,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,92; 164,18</t>
+          <t>12,85; 163,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-44,67; -2,71</t>
+          <t>-45,7; -3,58</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 9,74</t>
+          <t>-4,22; 9,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 11,39</t>
+          <t>-4,22; 11,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,19; 17,58</t>
+          <t>2,77; 16,95</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 12,84</t>
+          <t>-2,27; 13,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 13,48</t>
+          <t>-5,28; 13,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 16,14</t>
+          <t>-5,34; 15,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,99; 24,91</t>
+          <t>3,63; 24,51</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 18,75</t>
+          <t>-2,75; 20,14</t>
         </is>
       </c>
     </row>
